--- a/Deep Security Report.xlsx
+++ b/Deep Security Report.xlsx
@@ -505,7 +505,7 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF1783EF"/>
       <name val="Copperplate Gothic Light"/>
       <family val="2"/>
     </font>
@@ -533,7 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF17EF24"/>
+        <fgColor rgb="FFA4EF17"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>

--- a/Deep Security Report.xlsx
+++ b/Deep Security Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="145">
   <si>
     <t>Malware found in image</t>
   </si>
@@ -124,13 +124,28 @@
     <t>wordpress</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>CVE-2018-20149</t>
+  </si>
+  <si>
+    <t>AV:N</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20149</t>
+  </si>
+  <si>
+    <t>CVE-2018-20153</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20153</t>
+  </si>
+  <si>
     <t>medium</t>
   </si>
   <si>
     <t>CVE-2013-0235</t>
-  </si>
-  <si>
-    <t>AV:N</t>
   </si>
   <si>
     <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-0235</t>
@@ -625,8 +640,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A76:E125" totalsRowShown="0">
-  <autoFilter ref="A76:E125"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A76:E127" totalsRowShown="0">
+  <autoFilter ref="A76:E127"/>
   <tableColumns count="5">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name="severity"/>
@@ -923,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1355,16 +1370,16 @@
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D79" t="s">
         <v>38</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -1372,16 +1387,16 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
         <v>38</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1389,16 +1404,16 @@
         <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D81" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1406,16 +1421,16 @@
         <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
         <v>38</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1423,16 +1438,16 @@
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
         <v>38</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1440,16 +1455,16 @@
         <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D84" t="s">
         <v>38</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1457,16 +1472,16 @@
         <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D85" t="s">
         <v>38</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1474,16 +1489,16 @@
         <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D86" t="s">
         <v>38</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1491,16 +1506,16 @@
         <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D87" t="s">
         <v>38</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1508,16 +1523,16 @@
         <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D88" t="s">
         <v>38</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1525,16 +1540,16 @@
         <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D89" t="s">
         <v>38</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1542,16 +1557,16 @@
         <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D90" t="s">
         <v>38</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1559,16 +1574,16 @@
         <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D91" t="s">
         <v>38</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1576,16 +1591,16 @@
         <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D92" t="s">
         <v>38</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1593,16 +1608,16 @@
         <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D93" t="s">
         <v>38</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1610,16 +1625,16 @@
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D94" t="s">
         <v>38</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1627,16 +1642,16 @@
         <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D95" t="s">
         <v>38</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1644,16 +1659,16 @@
         <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C96" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D96" t="s">
         <v>38</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -1661,16 +1676,16 @@
         <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D97" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -1678,16 +1693,16 @@
         <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D98" t="s">
         <v>38</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -1695,16 +1710,16 @@
         <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D99" t="s">
         <v>38</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -1712,16 +1727,16 @@
         <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D100" t="s">
         <v>38</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -1729,16 +1744,16 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D101" t="s">
         <v>38</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -1746,16 +1761,16 @@
         <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D102" t="s">
         <v>38</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -1763,16 +1778,16 @@
         <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D103" t="s">
         <v>38</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -1780,16 +1795,16 @@
         <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D104" t="s">
         <v>38</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -1797,24 +1812,24 @@
         <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D105" t="s">
         <v>38</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
         <v>97</v>
@@ -1828,10 +1843,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
         <v>99</v>
@@ -1845,118 +1860,118 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D108" t="s">
         <v>38</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D109" t="s">
         <v>38</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B110" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D110" t="s">
         <v>38</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D111" t="s">
         <v>38</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D112" t="s">
         <v>38</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D113" t="s">
         <v>38</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D114" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>115</v>
@@ -1964,41 +1979,41 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
+        <v>101</v>
+      </c>
+      <c r="B115" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" t="s">
         <v>116</v>
       </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="D115" t="s">
-        <v>38</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
       </c>
       <c r="C116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" t="s">
+        <v>119</v>
+      </c>
+      <c r="E116" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="D116" t="s">
-        <v>38</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
@@ -2015,41 +2030,41 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D118" t="s">
         <v>38</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D119" t="s">
         <v>38</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
@@ -2066,7 +2081,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
         <v>9</v>
@@ -2089,13 +2104,13 @@
         <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D122" t="s">
         <v>38</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2106,47 +2121,81 @@
         <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D123" t="s">
         <v>38</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B124" t="s">
         <v>9</v>
       </c>
       <c r="C124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="D124" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B125" t="s">
-        <v>36</v>
-      </c>
-      <c r="C125" t="s">
-        <v>138</v>
-      </c>
-      <c r="D125" t="s">
-        <v>114</v>
-      </c>
-      <c r="E125" s="5" t="s">
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
         <v>139</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" t="s">
+        <v>143</v>
+      </c>
+      <c r="D127" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2211,15 +2260,17 @@
     <hyperlink ref="E123" r:id="rId47"/>
     <hyperlink ref="E124" r:id="rId48"/>
     <hyperlink ref="E125" r:id="rId49"/>
+    <hyperlink ref="E126" r:id="rId50"/>
+    <hyperlink ref="E127" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="6">
-    <tablePart r:id="rId50"/>
-    <tablePart r:id="rId51"/>
     <tablePart r:id="rId52"/>
     <tablePart r:id="rId53"/>
     <tablePart r:id="rId54"/>
     <tablePart r:id="rId55"/>
+    <tablePart r:id="rId56"/>
+    <tablePart r:id="rId57"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Deep Security Report.xlsx
+++ b/Deep Security Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t>Malware found in image</t>
   </si>
@@ -124,252 +124,18 @@
     <t>wordpress</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>CVE-2018-20149</t>
+    <t>CVE-2018-20148</t>
   </si>
   <si>
     <t>AV:N</t>
   </si>
   <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20149</t>
-  </si>
-  <si>
-    <t>CVE-2018-20153</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20153</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>CVE-2013-0235</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-0235</t>
-  </si>
-  <si>
-    <t>CVE-2013-0236</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-0236</t>
-  </si>
-  <si>
-    <t>CVE-2013-0237</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-0237</t>
-  </si>
-  <si>
-    <t>CVE-2013-2199</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2199</t>
-  </si>
-  <si>
-    <t>CVE-2013-2200</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2200</t>
-  </si>
-  <si>
-    <t>CVE-2013-2201</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2201</t>
-  </si>
-  <si>
-    <t>CVE-2013-2202</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2202</t>
-  </si>
-  <si>
-    <t>CVE-2013-2203</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2203</t>
-  </si>
-  <si>
-    <t>CVE-2013-2204</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2204</t>
-  </si>
-  <si>
-    <t>CVE-2013-2205</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2205</t>
-  </si>
-  <si>
-    <t>CVE-2014-0165</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-0165</t>
-  </si>
-  <si>
-    <t>CVE-2014-0166</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-0166</t>
-  </si>
-  <si>
-    <t>CVE-2014-6412</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-6412</t>
-  </si>
-  <si>
-    <t>CVE-2017-1000600</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-1000600</t>
-  </si>
-  <si>
-    <t>CVE-2018-1000773</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-1000773</t>
-  </si>
-  <si>
-    <t>CVE-2018-10100</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-10100</t>
-  </si>
-  <si>
-    <t>CVE-2018-10101</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-10101</t>
-  </si>
-  <si>
-    <t>CVE-2018-10102</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-10102</t>
-  </si>
-  <si>
-    <t>CVE-2018-12895</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-12895</t>
-  </si>
-  <si>
-    <t>CVE-2018-20147</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20147</t>
-  </si>
-  <si>
-    <t>CVE-2018-20150</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20150</t>
-  </si>
-  <si>
-    <t>CVE-2018-20151</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20151</t>
-  </si>
-  <si>
-    <t>CVE-2018-20152</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20152</t>
-  </si>
-  <si>
-    <t>CVE-2018-5776</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-5776</t>
-  </si>
-  <si>
-    <t>CVE-2018-6389</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-6389</t>
-  </si>
-  <si>
-    <t>CVE-2019-8942</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-8942</t>
-  </si>
-  <si>
-    <t>CVE-2019-8943</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-8943</t>
-  </si>
-  <si>
-    <t>CVE-2019-9787</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-9787</t>
-  </si>
-  <si>
-    <t>CVE-2018-20148</t>
-  </si>
-  <si>
     <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20148</t>
   </si>
   <si>
     <t>apache2</t>
   </si>
   <si>
-    <t>CVE-2018-17189</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-17189</t>
-  </si>
-  <si>
-    <t>CVE-2018-17199</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-17199</t>
-  </si>
-  <si>
-    <t>CVE-2019-0190</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-0190</t>
-  </si>
-  <si>
-    <t>CVE-2019-0196</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-0196</t>
-  </si>
-  <si>
-    <t>CVE-2019-0197</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-0197</t>
-  </si>
-  <si>
-    <t>CVE-2019-0215</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-0215</t>
-  </si>
-  <si>
-    <t>CVE-2019-0217</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-0217</t>
-  </si>
-  <si>
-    <t>CVE-2019-0220</t>
-  </si>
-  <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-0220</t>
-  </si>
-  <si>
     <t>CVE-2019-0211</t>
   </si>
   <si>
@@ -440,15 +206,6 @@
   </si>
   <si>
     <t>https://access.redhat.com/security/cve/CVE-2019-12735</t>
-  </si>
-  <si>
-    <t>openssl-libs</t>
-  </si>
-  <si>
-    <t>CVE-2018-5407</t>
-  </si>
-  <si>
-    <t>https://access.redhat.com/security/cve/CVE-2018-5407</t>
   </si>
 </sst>
 </file>
@@ -640,8 +397,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A76:E127" totalsRowShown="0">
-  <autoFilter ref="A76:E127"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A76:E88" totalsRowShown="0">
+  <autoFilter ref="A76:E88"/>
   <tableColumns count="5">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name="severity"/>
@@ -938,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,866 +1093,203 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
         <v>36</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>37</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
         <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D86" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D87" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>35</v>
-      </c>
-      <c r="B89" t="s">
-        <v>42</v>
-      </c>
-      <c r="C89" t="s">
         <v>63</v>
-      </c>
-      <c r="D89" t="s">
-        <v>38</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>35</v>
-      </c>
-      <c r="B90" t="s">
-        <v>42</v>
-      </c>
-      <c r="C90" t="s">
-        <v>65</v>
-      </c>
-      <c r="D90" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>35</v>
-      </c>
-      <c r="B91" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" t="s">
-        <v>67</v>
-      </c>
-      <c r="D91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" t="s">
-        <v>69</v>
-      </c>
-      <c r="D92" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" t="s">
-        <v>71</v>
-      </c>
-      <c r="D93" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>35</v>
-      </c>
-      <c r="B94" t="s">
-        <v>42</v>
-      </c>
-      <c r="C94" t="s">
-        <v>73</v>
-      </c>
-      <c r="D94" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>35</v>
-      </c>
-      <c r="B95" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95" t="s">
-        <v>75</v>
-      </c>
-      <c r="D95" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>35</v>
-      </c>
-      <c r="B96" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" t="s">
-        <v>77</v>
-      </c>
-      <c r="D96" t="s">
-        <v>38</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>35</v>
-      </c>
-      <c r="B97" t="s">
-        <v>42</v>
-      </c>
-      <c r="C97" t="s">
-        <v>79</v>
-      </c>
-      <c r="D97" t="s">
-        <v>38</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>35</v>
-      </c>
-      <c r="B98" t="s">
-        <v>42</v>
-      </c>
-      <c r="C98" t="s">
-        <v>81</v>
-      </c>
-      <c r="D98" t="s">
-        <v>38</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>35</v>
-      </c>
-      <c r="B99" t="s">
-        <v>42</v>
-      </c>
-      <c r="C99" t="s">
-        <v>83</v>
-      </c>
-      <c r="D99" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>35</v>
-      </c>
-      <c r="B100" t="s">
-        <v>42</v>
-      </c>
-      <c r="C100" t="s">
-        <v>85</v>
-      </c>
-      <c r="D100" t="s">
-        <v>38</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>35</v>
-      </c>
-      <c r="B101" t="s">
-        <v>42</v>
-      </c>
-      <c r="C101" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" t="s">
-        <v>89</v>
-      </c>
-      <c r="D102" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>35</v>
-      </c>
-      <c r="B103" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" t="s">
-        <v>91</v>
-      </c>
-      <c r="D103" t="s">
-        <v>38</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>35</v>
-      </c>
-      <c r="B104" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" t="s">
-        <v>93</v>
-      </c>
-      <c r="D104" t="s">
-        <v>38</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>35</v>
-      </c>
-      <c r="B105" t="s">
-        <v>42</v>
-      </c>
-      <c r="C105" t="s">
-        <v>95</v>
-      </c>
-      <c r="D105" t="s">
-        <v>38</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" t="s">
-        <v>97</v>
-      </c>
-      <c r="D106" t="s">
-        <v>38</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>35</v>
-      </c>
-      <c r="B107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" t="s">
-        <v>99</v>
-      </c>
-      <c r="D107" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>101</v>
-      </c>
-      <c r="B108" t="s">
-        <v>42</v>
-      </c>
-      <c r="C108" t="s">
-        <v>102</v>
-      </c>
-      <c r="D108" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>101</v>
-      </c>
-      <c r="B109" t="s">
-        <v>42</v>
-      </c>
-      <c r="C109" t="s">
-        <v>104</v>
-      </c>
-      <c r="D109" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>101</v>
-      </c>
-      <c r="B110" t="s">
-        <v>42</v>
-      </c>
-      <c r="C110" t="s">
-        <v>106</v>
-      </c>
-      <c r="D110" t="s">
-        <v>38</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" t="s">
-        <v>42</v>
-      </c>
-      <c r="C111" t="s">
-        <v>108</v>
-      </c>
-      <c r="D111" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>101</v>
-      </c>
-      <c r="B112" t="s">
-        <v>42</v>
-      </c>
-      <c r="C112" t="s">
-        <v>110</v>
-      </c>
-      <c r="D112" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>101</v>
-      </c>
-      <c r="B113" t="s">
-        <v>42</v>
-      </c>
-      <c r="C113" t="s">
-        <v>112</v>
-      </c>
-      <c r="D113" t="s">
-        <v>38</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>101</v>
-      </c>
-      <c r="B114" t="s">
-        <v>42</v>
-      </c>
-      <c r="C114" t="s">
-        <v>114</v>
-      </c>
-      <c r="D114" t="s">
-        <v>38</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>101</v>
-      </c>
-      <c r="B115" t="s">
-        <v>42</v>
-      </c>
-      <c r="C115" t="s">
-        <v>116</v>
-      </c>
-      <c r="D115" t="s">
-        <v>38</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>101</v>
-      </c>
-      <c r="B116" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" t="s">
-        <v>118</v>
-      </c>
-      <c r="D116" t="s">
-        <v>119</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>121</v>
-      </c>
-      <c r="B117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" t="s">
-        <v>122</v>
-      </c>
-      <c r="D117" t="s">
-        <v>38</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>124</v>
-      </c>
-      <c r="B118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" t="s">
-        <v>125</v>
-      </c>
-      <c r="D118" t="s">
-        <v>38</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" t="s">
-        <v>127</v>
-      </c>
-      <c r="D119" t="s">
-        <v>38</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>124</v>
-      </c>
-      <c r="B120" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" t="s">
-        <v>129</v>
-      </c>
-      <c r="D120" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" t="s">
-        <v>131</v>
-      </c>
-      <c r="D121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>133</v>
-      </c>
-      <c r="B122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" t="s">
-        <v>134</v>
-      </c>
-      <c r="D122" t="s">
-        <v>38</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>133</v>
-      </c>
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" t="s">
-        <v>136</v>
-      </c>
-      <c r="D123" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>138</v>
-      </c>
-      <c r="B124" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" t="s">
-        <v>134</v>
-      </c>
-      <c r="D124" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>138</v>
-      </c>
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" t="s">
-        <v>136</v>
-      </c>
-      <c r="D125" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>139</v>
-      </c>
-      <c r="B126" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" t="s">
-        <v>140</v>
-      </c>
-      <c r="D126" t="s">
-        <v>38</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>142</v>
-      </c>
-      <c r="B127" t="s">
-        <v>42</v>
-      </c>
-      <c r="C127" t="s">
-        <v>143</v>
-      </c>
-      <c r="D127" t="s">
-        <v>119</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2223,54 +1317,15 @@
     <hyperlink ref="E86" r:id="rId10"/>
     <hyperlink ref="E87" r:id="rId11"/>
     <hyperlink ref="E88" r:id="rId12"/>
-    <hyperlink ref="E89" r:id="rId13"/>
-    <hyperlink ref="E90" r:id="rId14"/>
-    <hyperlink ref="E91" r:id="rId15"/>
-    <hyperlink ref="E92" r:id="rId16"/>
-    <hyperlink ref="E93" r:id="rId17"/>
-    <hyperlink ref="E94" r:id="rId18"/>
-    <hyperlink ref="E95" r:id="rId19"/>
-    <hyperlink ref="E96" r:id="rId20"/>
-    <hyperlink ref="E97" r:id="rId21"/>
-    <hyperlink ref="E98" r:id="rId22"/>
-    <hyperlink ref="E99" r:id="rId23"/>
-    <hyperlink ref="E100" r:id="rId24"/>
-    <hyperlink ref="E101" r:id="rId25"/>
-    <hyperlink ref="E102" r:id="rId26"/>
-    <hyperlink ref="E103" r:id="rId27"/>
-    <hyperlink ref="E104" r:id="rId28"/>
-    <hyperlink ref="E105" r:id="rId29"/>
-    <hyperlink ref="E106" r:id="rId30"/>
-    <hyperlink ref="E107" r:id="rId31"/>
-    <hyperlink ref="E108" r:id="rId32"/>
-    <hyperlink ref="E109" r:id="rId33"/>
-    <hyperlink ref="E110" r:id="rId34"/>
-    <hyperlink ref="E111" r:id="rId35"/>
-    <hyperlink ref="E112" r:id="rId36"/>
-    <hyperlink ref="E113" r:id="rId37"/>
-    <hyperlink ref="E114" r:id="rId38"/>
-    <hyperlink ref="E115" r:id="rId39"/>
-    <hyperlink ref="E116" r:id="rId40"/>
-    <hyperlink ref="E117" r:id="rId41"/>
-    <hyperlink ref="E118" r:id="rId42"/>
-    <hyperlink ref="E119" r:id="rId43"/>
-    <hyperlink ref="E120" r:id="rId44"/>
-    <hyperlink ref="E121" r:id="rId45"/>
-    <hyperlink ref="E122" r:id="rId46"/>
-    <hyperlink ref="E123" r:id="rId47"/>
-    <hyperlink ref="E124" r:id="rId48"/>
-    <hyperlink ref="E125" r:id="rId49"/>
-    <hyperlink ref="E126" r:id="rId50"/>
-    <hyperlink ref="E127" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="6">
-    <tablePart r:id="rId52"/>
-    <tablePart r:id="rId53"/>
-    <tablePart r:id="rId54"/>
-    <tablePart r:id="rId55"/>
-    <tablePart r:id="rId56"/>
-    <tablePart r:id="rId57"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Deep Security Report.xlsx
+++ b/Deep Security Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="145">
   <si>
     <t>Malware found in image</t>
   </si>
@@ -124,18 +124,252 @@
     <t>wordpress</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>CVE-2018-20149</t>
+  </si>
+  <si>
+    <t>AV:N</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20149</t>
+  </si>
+  <si>
+    <t>CVE-2018-20153</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20153</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>CVE-2013-0235</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-0235</t>
+  </si>
+  <si>
+    <t>CVE-2013-0236</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-0236</t>
+  </si>
+  <si>
+    <t>CVE-2013-0237</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-0237</t>
+  </si>
+  <si>
+    <t>CVE-2013-2199</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2199</t>
+  </si>
+  <si>
+    <t>CVE-2013-2200</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2200</t>
+  </si>
+  <si>
+    <t>CVE-2013-2201</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2201</t>
+  </si>
+  <si>
+    <t>CVE-2013-2202</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2202</t>
+  </si>
+  <si>
+    <t>CVE-2013-2203</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2203</t>
+  </si>
+  <si>
+    <t>CVE-2013-2204</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2204</t>
+  </si>
+  <si>
+    <t>CVE-2013-2205</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2205</t>
+  </si>
+  <si>
+    <t>CVE-2014-0165</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-0165</t>
+  </si>
+  <si>
+    <t>CVE-2014-0166</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-0166</t>
+  </si>
+  <si>
+    <t>CVE-2014-6412</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-6412</t>
+  </si>
+  <si>
+    <t>CVE-2017-1000600</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-1000600</t>
+  </si>
+  <si>
+    <t>CVE-2018-1000773</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-1000773</t>
+  </si>
+  <si>
+    <t>CVE-2018-10100</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-10100</t>
+  </si>
+  <si>
+    <t>CVE-2018-10101</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-10101</t>
+  </si>
+  <si>
+    <t>CVE-2018-10102</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-10102</t>
+  </si>
+  <si>
+    <t>CVE-2018-12895</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-12895</t>
+  </si>
+  <si>
+    <t>CVE-2018-20147</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20147</t>
+  </si>
+  <si>
+    <t>CVE-2018-20150</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20150</t>
+  </si>
+  <si>
+    <t>CVE-2018-20151</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20151</t>
+  </si>
+  <si>
+    <t>CVE-2018-20152</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20152</t>
+  </si>
+  <si>
+    <t>CVE-2018-5776</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-5776</t>
+  </si>
+  <si>
+    <t>CVE-2018-6389</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-6389</t>
+  </si>
+  <si>
+    <t>CVE-2019-8942</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-8942</t>
+  </si>
+  <si>
+    <t>CVE-2019-8943</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-8943</t>
+  </si>
+  <si>
+    <t>CVE-2019-9787</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-9787</t>
+  </si>
+  <si>
     <t>CVE-2018-20148</t>
   </si>
   <si>
-    <t>AV:N</t>
-  </si>
-  <si>
     <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-20148</t>
   </si>
   <si>
     <t>apache2</t>
   </si>
   <si>
+    <t>CVE-2018-17189</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-17189</t>
+  </si>
+  <si>
+    <t>CVE-2018-17199</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-17199</t>
+  </si>
+  <si>
+    <t>CVE-2019-0190</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-0190</t>
+  </si>
+  <si>
+    <t>CVE-2019-0196</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-0196</t>
+  </si>
+  <si>
+    <t>CVE-2019-0197</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-0197</t>
+  </si>
+  <si>
+    <t>CVE-2019-0215</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-0215</t>
+  </si>
+  <si>
+    <t>CVE-2019-0217</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-0217</t>
+  </si>
+  <si>
+    <t>CVE-2019-0220</t>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-0220</t>
+  </si>
+  <si>
     <t>CVE-2019-0211</t>
   </si>
   <si>
@@ -206,6 +440,15 @@
   </si>
   <si>
     <t>https://access.redhat.com/security/cve/CVE-2019-12735</t>
+  </si>
+  <si>
+    <t>openssl-libs</t>
+  </si>
+  <si>
+    <t>CVE-2018-5407</t>
+  </si>
+  <si>
+    <t>https://access.redhat.com/security/cve/CVE-2018-5407</t>
   </si>
 </sst>
 </file>
@@ -397,8 +640,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A76:E88" totalsRowShown="0">
-  <autoFilter ref="A76:E88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A76:E127" totalsRowShown="0">
+  <autoFilter ref="A76:E127"/>
   <tableColumns count="5">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name="severity"/>
@@ -695,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,203 +1336,866 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s">
         <v>40</v>
       </c>
       <c r="D78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" t="s">
         <v>43</v>
       </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D79" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" t="s">
         <v>55</v>
       </c>
-      <c r="B85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" t="s">
-        <v>58</v>
-      </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D87" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" t="s">
         <v>61</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" t="s">
+        <v>87</v>
+      </c>
+      <c r="D101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>35</v>
+      </c>
+      <c r="B103" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" t="s">
+        <v>93</v>
+      </c>
+      <c r="D104" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" t="s">
+        <v>95</v>
+      </c>
+      <c r="D105" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" t="s">
         <v>9</v>
       </c>
-      <c r="C88" t="s">
-        <v>62</v>
-      </c>
-      <c r="D88" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>63</v>
+      <c r="C107" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" t="s">
+        <v>102</v>
+      </c>
+      <c r="D108" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>101</v>
+      </c>
+      <c r="B110" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" t="s">
+        <v>108</v>
+      </c>
+      <c r="D111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>101</v>
+      </c>
+      <c r="B114" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" t="s">
+        <v>114</v>
+      </c>
+      <c r="D114" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>101</v>
+      </c>
+      <c r="B115" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>101</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" t="s">
+        <v>119</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>136</v>
+      </c>
+      <c r="D123" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" t="s">
+        <v>143</v>
+      </c>
+      <c r="D127" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1317,15 +2223,54 @@
     <hyperlink ref="E86" r:id="rId10"/>
     <hyperlink ref="E87" r:id="rId11"/>
     <hyperlink ref="E88" r:id="rId12"/>
+    <hyperlink ref="E89" r:id="rId13"/>
+    <hyperlink ref="E90" r:id="rId14"/>
+    <hyperlink ref="E91" r:id="rId15"/>
+    <hyperlink ref="E92" r:id="rId16"/>
+    <hyperlink ref="E93" r:id="rId17"/>
+    <hyperlink ref="E94" r:id="rId18"/>
+    <hyperlink ref="E95" r:id="rId19"/>
+    <hyperlink ref="E96" r:id="rId20"/>
+    <hyperlink ref="E97" r:id="rId21"/>
+    <hyperlink ref="E98" r:id="rId22"/>
+    <hyperlink ref="E99" r:id="rId23"/>
+    <hyperlink ref="E100" r:id="rId24"/>
+    <hyperlink ref="E101" r:id="rId25"/>
+    <hyperlink ref="E102" r:id="rId26"/>
+    <hyperlink ref="E103" r:id="rId27"/>
+    <hyperlink ref="E104" r:id="rId28"/>
+    <hyperlink ref="E105" r:id="rId29"/>
+    <hyperlink ref="E106" r:id="rId30"/>
+    <hyperlink ref="E107" r:id="rId31"/>
+    <hyperlink ref="E108" r:id="rId32"/>
+    <hyperlink ref="E109" r:id="rId33"/>
+    <hyperlink ref="E110" r:id="rId34"/>
+    <hyperlink ref="E111" r:id="rId35"/>
+    <hyperlink ref="E112" r:id="rId36"/>
+    <hyperlink ref="E113" r:id="rId37"/>
+    <hyperlink ref="E114" r:id="rId38"/>
+    <hyperlink ref="E115" r:id="rId39"/>
+    <hyperlink ref="E116" r:id="rId40"/>
+    <hyperlink ref="E117" r:id="rId41"/>
+    <hyperlink ref="E118" r:id="rId42"/>
+    <hyperlink ref="E119" r:id="rId43"/>
+    <hyperlink ref="E120" r:id="rId44"/>
+    <hyperlink ref="E121" r:id="rId45"/>
+    <hyperlink ref="E122" r:id="rId46"/>
+    <hyperlink ref="E123" r:id="rId47"/>
+    <hyperlink ref="E124" r:id="rId48"/>
+    <hyperlink ref="E125" r:id="rId49"/>
+    <hyperlink ref="E126" r:id="rId50"/>
+    <hyperlink ref="E127" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="6">
-    <tablePart r:id="rId13"/>
-    <tablePart r:id="rId14"/>
-    <tablePart r:id="rId15"/>
-    <tablePart r:id="rId16"/>
-    <tablePart r:id="rId17"/>
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId53"/>
+    <tablePart r:id="rId54"/>
+    <tablePart r:id="rId55"/>
+    <tablePart r:id="rId56"/>
+    <tablePart r:id="rId57"/>
   </tableParts>
 </worksheet>
 </file>